--- a/biology/Botanique/Blighia/Blighia.xlsx
+++ b/biology/Botanique/Blighia/Blighia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blighia est un genre d'arbres et d'arbustes de la famille des Sapindaceae. 
 Il comprend plusieurs espèces originaires d'Afrique tropicale (de l'Est de la Guinée au Kenya). Le non du genre honore le capitaine William Bligh. Les fruits forment des arilles comestibles et Blighia sapida est une espèce cultivée.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon [réf. nécessaire] :
 Blighia kamerunensis Radlk. 1933
@@ -522,10 +536,10 @@
 Blighia unijugata Baker
 Blighia welwitschii (Hiern) Radlk. 1933
 Blighia zambesiaca Baker
-Selon NCBI  (1 Sep 2010)[1] :
+Selon NCBI  (1 Sep 2010) :
 Blighia sapida
 Blighia unijugata
-Selon ITIS      (1 Sep 2010)[2] :
+Selon ITIS      (1 Sep 2010) :
 Blighia sapida Koenig</t>
         </is>
       </c>
